--- a/Lab 3 - Vibrations/data_and_analysis.xlsx
+++ b/Lab 3 - Vibrations/data_and_analysis.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alex\Documents\LaTeX\MEC-E-403\Lab 3 - Vibrations\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1148E24-16D0-4C6C-B6D7-90685803FF65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D3931DC-20B9-4A70-95F9-0DBA26F5721E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="21000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="big cart damping ratio" sheetId="4" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="97">
   <si>
     <t>(V)</t>
   </si>
@@ -560,6 +560,27 @@
     <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -578,32 +599,11 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1086,7 +1086,385 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>big 1</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'big cart damping ratio'!$K$30:$K$37</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>9.0370000000000008</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8.1010000000000009</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.1589999999999998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.2290000000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.3380000000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.42</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.5680000000000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.7810000000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'big cart damping ratio'!$M$30:$M$37</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1.9024381088476171E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.4316100569134061E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.0811167809172368E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.7912760073139213E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.6652672937502592E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7.2935888301969677E-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9.8754348373108168E-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.0783910781286916E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-FFA2-4AEA-8E85-9B7C0FC41894}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1455876031"/>
+        <c:axId val="1455876511"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1455876031"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1455876511"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1455876511"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1455876031"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -1642,6 +2020,522 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -1675,6 +2569,42 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>173105</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>112228</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>418269</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>72471</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1FA4281C-96C2-9DFE-4DAD-DFDA3034C584}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1881,10 +2811,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03AD7245-EB65-F543-9047-E96AF37BD7B2}">
-  <dimension ref="A1:O23"/>
+  <dimension ref="A1:O48"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="G19" sqref="G18:H19"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="N32" sqref="N32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1895,41 +2825,41 @@
     <col min="6" max="16384" width="10.85546875" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="52" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A1" s="52" t="s">
+    <row r="1" spans="1:15" s="40" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A1" s="40" t="s">
         <v>91</v>
       </c>
-      <c r="B1" s="52" t="s">
+      <c r="B1" s="40" t="s">
         <v>89</v>
       </c>
-      <c r="C1" s="52" t="s">
+      <c r="C1" s="40" t="s">
         <v>90</v>
       </c>
-      <c r="D1" s="54" t="s">
+      <c r="D1" s="42" t="s">
         <v>94</v>
       </c>
-      <c r="E1" s="54" t="s">
+      <c r="E1" s="42" t="s">
         <v>95</v>
       </c>
       <c r="I1" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="J1" s="53" t="s">
+      <c r="J1" s="41" t="s">
         <v>84</v>
       </c>
-      <c r="K1" s="53" t="s">
+      <c r="K1" s="41" t="s">
         <v>85</v>
       </c>
-      <c r="L1" s="53" t="s">
+      <c r="L1" s="41" t="s">
         <v>86</v>
       </c>
-      <c r="M1" s="53" t="s">
+      <c r="M1" s="41" t="s">
         <v>84</v>
       </c>
-      <c r="N1" s="52" t="s">
+      <c r="N1" s="40" t="s">
         <v>87</v>
       </c>
-      <c r="O1" s="52" t="s">
+      <c r="O1" s="40" t="s">
         <v>88</v>
       </c>
     </row>
@@ -2304,7 +3234,7 @@
         <v>1</v>
       </c>
       <c r="C11" s="7">
-        <f>(L13-O13)/2</f>
+        <f t="shared" ref="C11:C21" si="3">(L13-O13)/2</f>
         <v>9.4465000000000003</v>
       </c>
       <c r="D11">
@@ -2345,7 +3275,7 @@
         <v>2</v>
       </c>
       <c r="C12" s="7">
-        <f>(L14-O14)/2</f>
+        <f t="shared" si="3"/>
         <v>8.5339999999999989</v>
       </c>
       <c r="D12">
@@ -2380,7 +3310,7 @@
         <v>3</v>
       </c>
       <c r="C13" s="7">
-        <f>(L15-O15)/2</f>
+        <f t="shared" si="3"/>
         <v>7.5920000000000005</v>
       </c>
       <c r="D13">
@@ -2421,7 +3351,7 @@
         <v>4</v>
       </c>
       <c r="C14" s="7">
-        <f>(L16-O16)/2</f>
+        <f t="shared" si="3"/>
         <v>6.6515000000000004</v>
       </c>
       <c r="D14">
@@ -2462,7 +3392,7 @@
         <v>5</v>
       </c>
       <c r="C15" s="7">
-        <f>(L17-O17)/2</f>
+        <f t="shared" si="3"/>
         <v>5.7534999999999998</v>
       </c>
       <c r="D15">
@@ -2503,7 +3433,7 @@
         <v>6</v>
       </c>
       <c r="C16" s="7">
-        <f>(L18-O18)/2</f>
+        <f t="shared" si="3"/>
         <v>4.8384999999999998</v>
       </c>
       <c r="D16">
@@ -2544,7 +3474,7 @@
         <v>7</v>
       </c>
       <c r="C17" s="7">
-        <f>(L19-O19)/2</f>
+        <f t="shared" si="3"/>
         <v>3.9915000000000003</v>
       </c>
       <c r="D17">
@@ -2585,7 +3515,7 @@
         <v>8</v>
       </c>
       <c r="C18" s="7">
-        <f>(L20-O20)/2</f>
+        <f t="shared" si="3"/>
         <v>3.145</v>
       </c>
       <c r="D18">
@@ -2626,7 +3556,7 @@
         <v>9</v>
       </c>
       <c r="C19" s="7">
-        <f>(L21-O21)/2</f>
+        <f t="shared" si="3"/>
         <v>2.2890000000000001</v>
       </c>
       <c r="D19">
@@ -2667,7 +3597,7 @@
         <v>10</v>
       </c>
       <c r="C20" s="7">
-        <f>(L22-O22)/2</f>
+        <f t="shared" si="3"/>
         <v>1.4670000000000001</v>
       </c>
       <c r="D20">
@@ -2708,7 +3638,7 @@
         <v>11</v>
       </c>
       <c r="C21" s="7">
-        <f>(L23-O23)/2</f>
+        <f t="shared" si="3"/>
         <v>0.66249999999999998</v>
       </c>
       <c r="I21" s="7" t="s">
@@ -2777,6 +3707,370 @@
       </c>
       <c r="O23" s="7">
         <v>-0.49299999999999999</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="I29" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="J29" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="L29" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="M29" s="7" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="I30" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="J30" s="7">
+        <v>1</v>
+      </c>
+      <c r="K30" s="7" cm="1">
+        <f t="array" ref="K30:K38">L2:L10</f>
+        <v>9.0370000000000008</v>
+      </c>
+      <c r="L30" s="7">
+        <f>LN(K30/K31)</f>
+        <v>0.10933975007146446</v>
+      </c>
+      <c r="M30" s="7">
+        <f>L30^2/(SQRT((2*PI())^2+L30^2))</f>
+        <v>1.9024381088476171E-3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="I31" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="J31" s="7">
+        <v>2</v>
+      </c>
+      <c r="K31" s="7">
+        <v>8.1010000000000009</v>
+      </c>
+      <c r="L31" s="7">
+        <f t="shared" ref="L31:L48" si="4">LN(K31/K32)</f>
+        <v>0.12361720443430639</v>
+      </c>
+      <c r="M31" s="7">
+        <f>L31^2/(SQRT((2*PI())^2+L31^2))</f>
+        <v>2.4316100569134061E-3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="I32" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="J32" s="7">
+        <v>3</v>
+      </c>
+      <c r="K32" s="7">
+        <v>7.1589999999999998</v>
+      </c>
+      <c r="L32" s="7">
+        <f t="shared" si="4"/>
+        <v>0.13915450014203945</v>
+      </c>
+      <c r="M32" s="7">
+        <f t="shared" ref="M31:M48" si="5">L32^2/(SQRT((2*PI())^2+L32^2))</f>
+        <v>3.0811167809172368E-3</v>
+      </c>
+    </row>
+    <row r="33" spans="9:13" x14ac:dyDescent="0.25">
+      <c r="I33" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="J33" s="7">
+        <v>4</v>
+      </c>
+      <c r="K33" s="7">
+        <v>6.2290000000000001</v>
+      </c>
+      <c r="L33" s="7">
+        <f t="shared" si="4"/>
+        <v>0.15436475528967603</v>
+      </c>
+      <c r="M33" s="7">
+        <f t="shared" si="5"/>
+        <v>3.7912760073139213E-3</v>
+      </c>
+    </row>
+    <row r="34" spans="9:13" x14ac:dyDescent="0.25">
+      <c r="I34" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="J34" s="7">
+        <v>5</v>
+      </c>
+      <c r="K34" s="7">
+        <v>5.3380000000000001</v>
+      </c>
+      <c r="L34" s="7">
+        <f t="shared" si="4"/>
+        <v>0.18871135489272559</v>
+      </c>
+      <c r="M34" s="7">
+        <f t="shared" si="5"/>
+        <v>5.6652672937502592E-3</v>
+      </c>
+    </row>
+    <row r="35" spans="9:13" x14ac:dyDescent="0.25">
+      <c r="I35" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="J35" s="7">
+        <v>6</v>
+      </c>
+      <c r="K35" s="7">
+        <v>4.42</v>
+      </c>
+      <c r="L35" s="7">
+        <f t="shared" si="4"/>
+        <v>0.21413448137184371</v>
+      </c>
+      <c r="M35" s="7">
+        <f t="shared" si="5"/>
+        <v>7.2935888301969677E-3</v>
+      </c>
+    </row>
+    <row r="36" spans="9:13" x14ac:dyDescent="0.25">
+      <c r="I36" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="J36" s="7">
+        <v>7</v>
+      </c>
+      <c r="K36" s="7">
+        <v>3.5680000000000001</v>
+      </c>
+      <c r="L36" s="7">
+        <f t="shared" si="4"/>
+        <v>0.24919463946593509</v>
+      </c>
+      <c r="M36" s="7">
+        <f t="shared" si="5"/>
+        <v>9.8754348373108168E-3</v>
+      </c>
+    </row>
+    <row r="37" spans="9:13" x14ac:dyDescent="0.25">
+      <c r="I37" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="J37" s="7">
+        <v>8</v>
+      </c>
+      <c r="K37" s="7">
+        <v>2.7810000000000001</v>
+      </c>
+      <c r="L37" s="7">
+        <f t="shared" si="4"/>
+        <v>0.36167019082696894</v>
+      </c>
+      <c r="M37" s="7">
+        <f t="shared" si="5"/>
+        <v>2.0783910781286916E-2</v>
+      </c>
+    </row>
+    <row r="38" spans="9:13" x14ac:dyDescent="0.25">
+      <c r="I38" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="J38" s="7">
+        <v>9</v>
+      </c>
+      <c r="K38" s="7">
+        <v>1.9370000000000001</v>
+      </c>
+    </row>
+    <row r="39" spans="9:13" x14ac:dyDescent="0.25">
+      <c r="I39" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="J39" s="7">
+        <v>1</v>
+      </c>
+      <c r="K39" s="7" cm="1">
+        <f t="array" ref="K39:K48">L13:L22</f>
+        <v>9.7189999999999994</v>
+      </c>
+      <c r="L39" s="7">
+        <f t="shared" si="4"/>
+        <v>9.9444653857909862E-2</v>
+      </c>
+      <c r="M39" s="7">
+        <f t="shared" si="5"/>
+        <v>1.5737242045283312E-3</v>
+      </c>
+    </row>
+    <row r="40" spans="9:13" x14ac:dyDescent="0.25">
+      <c r="I40" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="J40" s="7">
+        <v>2</v>
+      </c>
+      <c r="K40" s="7">
+        <v>8.7989999999999995</v>
+      </c>
+      <c r="L40" s="7">
+        <f t="shared" si="4"/>
+        <v>0.11196128331631813</v>
+      </c>
+      <c r="M40" s="7">
+        <f t="shared" si="5"/>
+        <v>1.9947429037285025E-3</v>
+      </c>
+    </row>
+    <row r="41" spans="9:13" x14ac:dyDescent="0.25">
+      <c r="I41" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="J41" s="7">
+        <v>3</v>
+      </c>
+      <c r="K41" s="7">
+        <v>7.867</v>
+      </c>
+      <c r="L41" s="7">
+        <f t="shared" si="4"/>
+        <v>0.12797205013395302</v>
+      </c>
+      <c r="M41" s="7">
+        <f t="shared" si="5"/>
+        <v>2.6059154815907632E-3</v>
+      </c>
+    </row>
+    <row r="42" spans="9:13" x14ac:dyDescent="0.25">
+      <c r="I42" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="J42" s="7">
+        <v>4</v>
+      </c>
+      <c r="K42" s="7">
+        <v>6.9219999999999997</v>
+      </c>
+      <c r="L42" s="7">
+        <f t="shared" si="4"/>
+        <v>0.14161283075131878</v>
+      </c>
+      <c r="M42" s="7">
+        <f t="shared" si="5"/>
+        <v>3.1909137231615026E-3</v>
+      </c>
+    </row>
+    <row r="43" spans="9:13" x14ac:dyDescent="0.25">
+      <c r="I43" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="J43" s="7">
+        <v>5</v>
+      </c>
+      <c r="K43" s="7">
+        <v>6.008</v>
+      </c>
+      <c r="L43" s="7">
+        <f t="shared" si="4"/>
+        <v>0.17509077136724543</v>
+      </c>
+      <c r="M43" s="7">
+        <f t="shared" si="5"/>
+        <v>4.8772844440914337E-3</v>
+      </c>
+    </row>
+    <row r="44" spans="9:13" x14ac:dyDescent="0.25">
+      <c r="I44" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="J44" s="7">
+        <v>6</v>
+      </c>
+      <c r="K44" s="7">
+        <v>5.0430000000000001</v>
+      </c>
+      <c r="L44" s="7">
+        <f t="shared" si="4"/>
+        <v>0.18148906581408006</v>
+      </c>
+      <c r="M44" s="7">
+        <f t="shared" si="5"/>
+        <v>5.2401046904239149E-3</v>
+      </c>
+    </row>
+    <row r="45" spans="9:13" x14ac:dyDescent="0.25">
+      <c r="I45" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="J45" s="7">
+        <v>7</v>
+      </c>
+      <c r="K45" s="7">
+        <v>4.2060000000000004</v>
+      </c>
+      <c r="L45" s="7">
+        <f t="shared" si="4"/>
+        <v>0.22874647471587586</v>
+      </c>
+      <c r="M45" s="7">
+        <f t="shared" si="5"/>
+        <v>8.322261027980251E-3</v>
+      </c>
+    </row>
+    <row r="46" spans="9:13" x14ac:dyDescent="0.25">
+      <c r="I46" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="J46" s="7">
+        <v>8</v>
+      </c>
+      <c r="K46" s="7">
+        <v>3.3460000000000001</v>
+      </c>
+      <c r="L46" s="7">
+        <f t="shared" si="4"/>
+        <v>0.29870091578221664</v>
+      </c>
+      <c r="M46" s="7">
+        <f t="shared" si="5"/>
+        <v>1.4184140851108383E-2</v>
+      </c>
+    </row>
+    <row r="47" spans="9:13" x14ac:dyDescent="0.25">
+      <c r="I47" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="J47" s="7">
+        <v>9</v>
+      </c>
+      <c r="K47" s="7">
+        <v>2.4820000000000002</v>
+      </c>
+      <c r="L47" s="7">
+        <f t="shared" si="4"/>
+        <v>0.37902484409262049</v>
+      </c>
+      <c r="M47" s="7">
+        <f t="shared" si="5"/>
+        <v>2.2822684905228791E-2</v>
+      </c>
+    </row>
+    <row r="48" spans="9:13" x14ac:dyDescent="0.25">
+      <c r="I48" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="J48" s="7">
+        <v>10</v>
+      </c>
+      <c r="K48" s="7">
+        <v>1.6990000000000001</v>
       </c>
     </row>
   </sheetData>
@@ -2879,7 +4173,7 @@
       <c r="S4"/>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A5" s="40">
+      <c r="A5" s="47">
         <v>0.10199999999999999</v>
       </c>
       <c r="B5">
@@ -2905,7 +4199,7 @@
       <c r="S5"/>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A6" s="41"/>
+      <c r="A6" s="48"/>
       <c r="B6">
         <v>9.2999999999999999E-2</v>
       </c>
@@ -2929,7 +4223,7 @@
       <c r="S6" s="14"/>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A7" s="41"/>
+      <c r="A7" s="48"/>
       <c r="B7">
         <v>9.2999999999999999E-2</v>
       </c>
@@ -2953,7 +4247,7 @@
       <c r="S7" s="14"/>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A8" s="41"/>
+      <c r="A8" s="48"/>
       <c r="B8">
         <v>9.2999999999999999E-2</v>
       </c>
@@ -2977,7 +4271,7 @@
       <c r="S8" s="14"/>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A9" s="41"/>
+      <c r="A9" s="48"/>
       <c r="B9">
         <v>9.2999999999999999E-2</v>
       </c>
@@ -3001,7 +4295,7 @@
       <c r="S9" s="14"/>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A10" s="41"/>
+      <c r="A10" s="48"/>
       <c r="B10">
         <v>9.2999999999999999E-2</v>
       </c>
@@ -3025,7 +4319,7 @@
       <c r="S10" s="14"/>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A11" s="41"/>
+      <c r="A11" s="48"/>
       <c r="B11">
         <v>9.2999999999999999E-2</v>
       </c>
@@ -3049,7 +4343,7 @@
       <c r="S11" s="14"/>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A12" s="41"/>
+      <c r="A12" s="48"/>
       <c r="B12">
         <v>9.2999999999999999E-2</v>
       </c>
@@ -3073,7 +4367,7 @@
       <c r="S12" s="14"/>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A13" s="41"/>
+      <c r="A13" s="48"/>
       <c r="B13">
         <v>9.8000000000000004E-2</v>
       </c>
@@ -3097,7 +4391,7 @@
       <c r="S13" s="14"/>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A14" s="42"/>
+      <c r="A14" s="49"/>
       <c r="B14" s="8">
         <v>9.2999999999999999E-2</v>
       </c>
@@ -3121,7 +4415,7 @@
       <c r="S14" s="14"/>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A15" s="43">
+      <c r="A15" s="50">
         <v>1.024</v>
       </c>
       <c r="B15">
@@ -3136,7 +4430,7 @@
       <c r="E15" s="1">
         <v>1.016</v>
       </c>
-      <c r="F15" s="46"/>
+      <c r="F15" s="43"/>
       <c r="O15" s="14"/>
       <c r="P15" s="15"/>
       <c r="Q15" s="14"/>
@@ -3144,7 +4438,7 @@
       <c r="S15" s="14"/>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A16" s="44"/>
+      <c r="A16" s="51"/>
       <c r="B16">
         <v>1.0249999999999999</v>
       </c>
@@ -3157,7 +4451,7 @@
       <c r="E16" s="1">
         <v>1.016</v>
       </c>
-      <c r="F16" s="47"/>
+      <c r="F16" s="44"/>
       <c r="O16" s="14"/>
       <c r="P16" s="15"/>
       <c r="Q16" s="14"/>
@@ -3165,7 +4459,7 @@
       <c r="S16" s="14"/>
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A17" s="44"/>
+      <c r="A17" s="51"/>
       <c r="B17">
         <v>1.0249999999999999</v>
       </c>
@@ -3178,7 +4472,7 @@
       <c r="E17" s="1">
         <v>1.016</v>
       </c>
-      <c r="F17" s="47"/>
+      <c r="F17" s="44"/>
       <c r="O17" s="14"/>
       <c r="P17" s="15"/>
       <c r="Q17" s="14"/>
@@ -3186,7 +4480,7 @@
       <c r="S17" s="14"/>
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A18" s="44"/>
+      <c r="A18" s="51"/>
       <c r="B18">
         <v>1.0249999999999999</v>
       </c>
@@ -3199,7 +4493,7 @@
       <c r="E18" s="1">
         <v>1.016</v>
       </c>
-      <c r="F18" s="47"/>
+      <c r="F18" s="44"/>
       <c r="O18" s="14"/>
       <c r="P18" s="15"/>
       <c r="Q18" s="14"/>
@@ -3207,7 +4501,7 @@
       <c r="S18" s="14"/>
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A19" s="44"/>
+      <c r="A19" s="51"/>
       <c r="B19">
         <v>1.0249999999999999</v>
       </c>
@@ -3220,7 +4514,7 @@
       <c r="E19" s="1">
         <v>1.016</v>
       </c>
-      <c r="F19" s="47"/>
+      <c r="F19" s="44"/>
       <c r="O19" s="14"/>
       <c r="P19" s="15"/>
       <c r="Q19" s="14"/>
@@ -3228,7 +4522,7 @@
       <c r="S19" s="14"/>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A20" s="44"/>
+      <c r="A20" s="51"/>
       <c r="B20">
         <v>1.0249999999999999</v>
       </c>
@@ -3241,7 +4535,7 @@
       <c r="E20" s="1">
         <v>1.016</v>
       </c>
-      <c r="F20" s="47"/>
+      <c r="F20" s="44"/>
       <c r="O20" s="14"/>
       <c r="P20" s="15"/>
       <c r="Q20" s="14"/>
@@ -3249,7 +4543,7 @@
       <c r="S20" s="14"/>
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A21" s="44"/>
+      <c r="A21" s="51"/>
       <c r="B21">
         <v>1.0249999999999999</v>
       </c>
@@ -3262,7 +4556,7 @@
       <c r="E21" s="1">
         <v>1.016</v>
       </c>
-      <c r="F21" s="47"/>
+      <c r="F21" s="44"/>
       <c r="O21" s="14"/>
       <c r="P21" s="15"/>
       <c r="Q21" s="14"/>
@@ -3270,7 +4564,7 @@
       <c r="S21" s="14"/>
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A22" s="44"/>
+      <c r="A22" s="51"/>
       <c r="B22">
         <v>1.0249999999999999</v>
       </c>
@@ -3283,7 +4577,7 @@
       <c r="E22" s="1">
         <v>1.016</v>
       </c>
-      <c r="F22" s="47"/>
+      <c r="F22" s="44"/>
       <c r="O22" s="14"/>
       <c r="P22" s="15"/>
       <c r="Q22" s="14"/>
@@ -3291,7 +4585,7 @@
       <c r="S22" s="14"/>
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A23" s="44"/>
+      <c r="A23" s="51"/>
       <c r="B23">
         <v>1.0249999999999999</v>
       </c>
@@ -3304,7 +4598,7 @@
       <c r="E23" s="1">
         <v>1.016</v>
       </c>
-      <c r="F23" s="47"/>
+      <c r="F23" s="44"/>
       <c r="O23" s="14"/>
       <c r="P23" s="15"/>
       <c r="Q23" s="14"/>
@@ -3312,7 +4606,7 @@
       <c r="S23" s="14"/>
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A24" s="45"/>
+      <c r="A24" s="52"/>
       <c r="B24" s="8">
         <v>1.0249999999999999</v>
       </c>
@@ -3325,7 +4619,7 @@
       <c r="E24" s="1">
         <v>1.016</v>
       </c>
-      <c r="F24" s="48"/>
+      <c r="F24" s="45"/>
       <c r="O24" s="14"/>
       <c r="P24" s="15"/>
       <c r="Q24" s="14"/>
@@ -3333,7 +4627,7 @@
       <c r="S24" s="14"/>
     </row>
     <row r="25" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A25" s="40">
+      <c r="A25" s="47">
         <v>1.8</v>
       </c>
       <c r="B25">
@@ -3348,7 +4642,7 @@
       <c r="E25" s="9">
         <v>1.7969999999999999</v>
       </c>
-      <c r="F25" s="46"/>
+      <c r="F25" s="43"/>
       <c r="O25" s="14"/>
       <c r="P25" s="14"/>
       <c r="Q25" s="14"/>
@@ -3356,7 +4650,7 @@
       <c r="S25" s="14"/>
     </row>
     <row r="26" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A26" s="41"/>
+      <c r="A26" s="48"/>
       <c r="B26">
         <v>1.821</v>
       </c>
@@ -3369,7 +4663,7 @@
       <c r="E26" s="1">
         <v>1.7969999999999999</v>
       </c>
-      <c r="F26" s="47"/>
+      <c r="F26" s="44"/>
       <c r="O26" s="14"/>
       <c r="P26" s="14"/>
       <c r="Q26" s="14"/>
@@ -3377,7 +4671,7 @@
       <c r="S26" s="14"/>
     </row>
     <row r="27" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A27" s="41"/>
+      <c r="A27" s="48"/>
       <c r="B27">
         <v>1.8120000000000001</v>
       </c>
@@ -3390,7 +4684,7 @@
       <c r="E27" s="1">
         <v>1.7969999999999999</v>
       </c>
-      <c r="F27" s="47"/>
+      <c r="F27" s="44"/>
       <c r="O27" s="14"/>
       <c r="P27" s="14"/>
       <c r="Q27" s="14"/>
@@ -3398,7 +4692,7 @@
       <c r="S27" s="14"/>
     </row>
     <row r="28" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A28" s="41"/>
+      <c r="A28" s="48"/>
       <c r="B28">
         <v>1.8160000000000001</v>
       </c>
@@ -3411,7 +4705,7 @@
       <c r="E28" s="1">
         <v>1.7969999999999999</v>
       </c>
-      <c r="F28" s="47"/>
+      <c r="F28" s="44"/>
       <c r="O28" s="14"/>
       <c r="P28" s="14"/>
       <c r="Q28" s="14"/>
@@ -3419,7 +4713,7 @@
       <c r="S28" s="14"/>
     </row>
     <row r="29" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A29" s="41"/>
+      <c r="A29" s="48"/>
       <c r="B29">
         <v>1.8120000000000001</v>
       </c>
@@ -3432,7 +4726,7 @@
       <c r="E29" s="1">
         <v>1.7969999999999999</v>
       </c>
-      <c r="F29" s="47"/>
+      <c r="F29" s="44"/>
       <c r="O29" s="14"/>
       <c r="P29" s="14"/>
       <c r="Q29" s="14"/>
@@ -3440,7 +4734,7 @@
       <c r="S29" s="14"/>
     </row>
     <row r="30" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A30" s="41"/>
+      <c r="A30" s="48"/>
       <c r="B30">
         <v>1.8120000000000001</v>
       </c>
@@ -3453,7 +4747,7 @@
       <c r="E30" s="1">
         <v>1.7969999999999999</v>
       </c>
-      <c r="F30" s="47"/>
+      <c r="F30" s="44"/>
       <c r="O30" s="14"/>
       <c r="P30" s="14"/>
       <c r="Q30" s="14"/>
@@ -3461,7 +4755,7 @@
       <c r="S30" s="14"/>
     </row>
     <row r="31" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A31" s="41"/>
+      <c r="A31" s="48"/>
       <c r="B31">
         <v>1.8160000000000001</v>
       </c>
@@ -3474,7 +4768,7 @@
       <c r="E31" s="1">
         <v>1.7969999999999999</v>
       </c>
-      <c r="F31" s="47"/>
+      <c r="F31" s="44"/>
       <c r="O31" s="14"/>
       <c r="P31" s="14"/>
       <c r="Q31" s="14"/>
@@ -3482,7 +4776,7 @@
       <c r="S31" s="14"/>
     </row>
     <row r="32" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A32" s="41"/>
+      <c r="A32" s="48"/>
       <c r="B32">
         <v>1.8160000000000001</v>
       </c>
@@ -3495,7 +4789,7 @@
       <c r="E32" s="1">
         <v>1.7969999999999999</v>
       </c>
-      <c r="F32" s="47"/>
+      <c r="F32" s="44"/>
       <c r="O32" s="14"/>
       <c r="P32" s="14"/>
       <c r="Q32" s="14"/>
@@ -3503,7 +4797,7 @@
       <c r="S32" s="14"/>
     </row>
     <row r="33" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A33" s="41"/>
+      <c r="A33" s="48"/>
       <c r="B33">
         <v>1.8120000000000001</v>
       </c>
@@ -3516,7 +4810,7 @@
       <c r="E33" s="1">
         <v>1.7969999999999999</v>
       </c>
-      <c r="F33" s="47"/>
+      <c r="F33" s="44"/>
       <c r="O33" s="14"/>
       <c r="P33" s="14"/>
       <c r="Q33" s="14"/>
@@ -3524,7 +4818,7 @@
       <c r="S33" s="14"/>
     </row>
     <row r="34" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A34" s="42"/>
+      <c r="A34" s="49"/>
       <c r="B34" s="8">
         <v>1.8160000000000001</v>
       </c>
@@ -3537,7 +4831,7 @@
       <c r="E34" s="8">
         <v>1.7969999999999999</v>
       </c>
-      <c r="F34" s="48"/>
+      <c r="F34" s="45"/>
       <c r="O34" s="14"/>
       <c r="P34" s="14"/>
       <c r="Q34" s="14"/>
@@ -3545,7 +4839,7 @@
       <c r="S34" s="14"/>
     </row>
     <row r="35" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A35" s="40">
+      <c r="A35" s="47">
         <v>2.5</v>
       </c>
       <c r="B35" s="19">
@@ -3560,14 +4854,14 @@
       <c r="E35" s="20">
         <v>2.5</v>
       </c>
-      <c r="F35" s="46"/>
+      <c r="F35" s="43"/>
       <c r="O35" s="14"/>
       <c r="P35" s="14"/>
       <c r="Q35" s="14"/>
       <c r="R35" s="14"/>
     </row>
     <row r="36" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A36" s="41"/>
+      <c r="A36" s="48"/>
       <c r="B36" s="19">
         <v>2.524</v>
       </c>
@@ -3580,14 +4874,14 @@
       <c r="E36" s="10">
         <v>2.5</v>
       </c>
-      <c r="F36" s="47"/>
+      <c r="F36" s="44"/>
       <c r="O36" s="14"/>
       <c r="P36" s="14"/>
       <c r="Q36" s="14"/>
       <c r="R36" s="14"/>
     </row>
     <row r="37" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A37" s="41"/>
+      <c r="A37" s="48"/>
       <c r="B37" s="19">
         <v>2.4950000000000001</v>
       </c>
@@ -3600,14 +4894,14 @@
       <c r="E37" s="10">
         <v>2.5</v>
       </c>
-      <c r="F37" s="47"/>
+      <c r="F37" s="44"/>
       <c r="O37" s="14"/>
       <c r="P37" s="14"/>
       <c r="Q37" s="14"/>
       <c r="R37" s="14"/>
     </row>
     <row r="38" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A38" s="41"/>
+      <c r="A38" s="48"/>
       <c r="B38" s="19">
         <v>2.524</v>
       </c>
@@ -3620,14 +4914,14 @@
       <c r="E38" s="10">
         <v>2.5</v>
       </c>
-      <c r="F38" s="47"/>
+      <c r="F38" s="44"/>
       <c r="O38" s="14"/>
       <c r="P38" s="14"/>
       <c r="Q38" s="14"/>
       <c r="R38" s="14"/>
     </row>
     <row r="39" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A39" s="41"/>
+      <c r="A39" s="48"/>
       <c r="B39" s="19">
         <v>2.5099999999999998</v>
       </c>
@@ -3640,14 +4934,14 @@
       <c r="E39" s="10">
         <v>2.5</v>
       </c>
-      <c r="F39" s="47"/>
+      <c r="F39" s="44"/>
       <c r="O39" s="14"/>
       <c r="P39" s="14"/>
       <c r="Q39" s="14"/>
       <c r="R39" s="14"/>
     </row>
     <row r="40" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A40" s="41"/>
+      <c r="A40" s="48"/>
       <c r="B40" s="19">
         <v>2.52</v>
       </c>
@@ -3660,14 +4954,14 @@
       <c r="E40" s="10">
         <v>2.5</v>
       </c>
-      <c r="F40" s="47"/>
+      <c r="F40" s="44"/>
       <c r="O40" s="14"/>
       <c r="P40" s="14"/>
       <c r="Q40" s="14"/>
       <c r="R40" s="14"/>
     </row>
     <row r="41" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A41" s="41"/>
+      <c r="A41" s="48"/>
       <c r="B41" s="19">
         <v>2.5539999999999998</v>
       </c>
@@ -3680,14 +4974,14 @@
       <c r="E41" s="10">
         <v>2.5</v>
       </c>
-      <c r="F41" s="47"/>
+      <c r="F41" s="44"/>
       <c r="O41" s="14"/>
       <c r="P41" s="14"/>
       <c r="Q41" s="14"/>
       <c r="R41" s="14"/>
     </row>
     <row r="42" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A42" s="41"/>
+      <c r="A42" s="48"/>
       <c r="B42" s="19">
         <v>2.524</v>
       </c>
@@ -3700,14 +4994,14 @@
       <c r="E42" s="10">
         <v>2.5</v>
       </c>
-      <c r="F42" s="47"/>
+      <c r="F42" s="44"/>
       <c r="O42" s="14"/>
       <c r="P42" s="14"/>
       <c r="Q42" s="14"/>
       <c r="R42" s="14"/>
     </row>
     <row r="43" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A43" s="41"/>
+      <c r="A43" s="48"/>
       <c r="B43" s="19">
         <v>2.5339999999999998</v>
       </c>
@@ -3720,14 +5014,14 @@
       <c r="E43" s="10">
         <v>2.5</v>
       </c>
-      <c r="F43" s="47"/>
+      <c r="F43" s="44"/>
       <c r="O43" s="14"/>
       <c r="P43" s="14"/>
       <c r="Q43" s="14"/>
       <c r="R43" s="14"/>
     </row>
     <row r="44" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A44" s="42"/>
+      <c r="A44" s="49"/>
       <c r="B44" s="11">
         <v>2.52</v>
       </c>
@@ -3740,7 +5034,7 @@
       <c r="E44" s="11">
         <v>2.5</v>
       </c>
-      <c r="F44" s="48"/>
+      <c r="F44" s="45"/>
       <c r="O44" s="14"/>
       <c r="P44" s="14"/>
       <c r="Q44" s="14"/>
@@ -3752,20 +5046,20 @@
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B49" s="49" t="s">
+      <c r="B49" s="46" t="s">
         <v>22</v>
       </c>
-      <c r="C49" s="49"/>
-      <c r="D49" s="49"/>
-      <c r="E49" s="49"/>
-      <c r="F49" s="49"/>
-      <c r="G49" s="49" t="s">
+      <c r="C49" s="46"/>
+      <c r="D49" s="46"/>
+      <c r="E49" s="46"/>
+      <c r="F49" s="46"/>
+      <c r="G49" s="46" t="s">
         <v>23</v>
       </c>
-      <c r="H49" s="49"/>
-      <c r="I49" s="49"/>
-      <c r="J49" s="49"/>
-      <c r="K49" s="49"/>
+      <c r="H49" s="46"/>
+      <c r="I49" s="46"/>
+      <c r="J49" s="46"/>
+      <c r="K49" s="46"/>
     </row>
     <row r="50" spans="1:11" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
@@ -4253,7 +5547,7 @@
       <c r="E62" s="1">
         <v>1.016</v>
       </c>
-      <c r="F62" s="46"/>
+      <c r="F62" s="43"/>
       <c r="G62" s="19">
         <f t="shared" si="1"/>
         <v>9.9999999999988987E-4</v>
@@ -4288,7 +5582,7 @@
       <c r="E63" s="1">
         <v>1.016</v>
       </c>
-      <c r="F63" s="47"/>
+      <c r="F63" s="44"/>
       <c r="G63" s="19">
         <f t="shared" si="1"/>
         <v>9.9999999999988987E-4</v>
@@ -4323,7 +5617,7 @@
       <c r="E64" s="1">
         <v>1.016</v>
       </c>
-      <c r="F64" s="47"/>
+      <c r="F64" s="44"/>
       <c r="G64" s="19">
         <f t="shared" si="1"/>
         <v>9.9999999999988987E-4</v>
@@ -4358,7 +5652,7 @@
       <c r="E65" s="1">
         <v>1.016</v>
       </c>
-      <c r="F65" s="47"/>
+      <c r="F65" s="44"/>
       <c r="G65" s="19">
         <f t="shared" si="1"/>
         <v>9.9999999999988987E-4</v>
@@ -4393,7 +5687,7 @@
       <c r="E66" s="1">
         <v>1.016</v>
       </c>
-      <c r="F66" s="47"/>
+      <c r="F66" s="44"/>
       <c r="G66" s="19">
         <f t="shared" si="1"/>
         <v>9.9999999999988987E-4</v>
@@ -4428,7 +5722,7 @@
       <c r="E67" s="1">
         <v>1.016</v>
       </c>
-      <c r="F67" s="47"/>
+      <c r="F67" s="44"/>
       <c r="G67" s="19">
         <f t="shared" si="1"/>
         <v>9.9999999999988987E-4</v>
@@ -4463,7 +5757,7 @@
       <c r="E68" s="1">
         <v>1.016</v>
       </c>
-      <c r="F68" s="47"/>
+      <c r="F68" s="44"/>
       <c r="G68" s="19">
         <f t="shared" si="1"/>
         <v>9.9999999999988987E-4</v>
@@ -4498,7 +5792,7 @@
       <c r="E69" s="1">
         <v>1.016</v>
       </c>
-      <c r="F69" s="47"/>
+      <c r="F69" s="44"/>
       <c r="G69" s="19">
         <f t="shared" si="1"/>
         <v>9.9999999999988987E-4</v>
@@ -4533,7 +5827,7 @@
       <c r="E70" s="1">
         <v>1.016</v>
       </c>
-      <c r="F70" s="47"/>
+      <c r="F70" s="44"/>
       <c r="G70" s="19">
         <f t="shared" si="1"/>
         <v>9.9999999999988987E-4</v>
@@ -4568,7 +5862,7 @@
       <c r="E71" s="1">
         <v>1.016</v>
       </c>
-      <c r="F71" s="48"/>
+      <c r="F71" s="45"/>
       <c r="G71" s="19">
         <f t="shared" si="1"/>
         <v>9.9999999999988987E-4</v>
@@ -4603,7 +5897,7 @@
       <c r="E72" s="9">
         <v>1.7969999999999999</v>
       </c>
-      <c r="F72" s="46"/>
+      <c r="F72" s="43"/>
       <c r="G72" s="19">
         <f t="shared" si="1"/>
         <v>1.6000000000000014E-2</v>
@@ -4638,7 +5932,7 @@
       <c r="E73" s="1">
         <v>1.7969999999999999</v>
       </c>
-      <c r="F73" s="47"/>
+      <c r="F73" s="44"/>
       <c r="G73" s="19">
         <f t="shared" si="1"/>
         <v>2.0999999999999908E-2</v>
@@ -4673,7 +5967,7 @@
       <c r="E74" s="1">
         <v>1.7969999999999999</v>
       </c>
-      <c r="F74" s="47"/>
+      <c r="F74" s="44"/>
       <c r="G74" s="19">
         <f t="shared" si="1"/>
         <v>1.2000000000000011E-2</v>
@@ -4708,7 +6002,7 @@
       <c r="E75" s="1">
         <v>1.7969999999999999</v>
       </c>
-      <c r="F75" s="47"/>
+      <c r="F75" s="44"/>
       <c r="G75" s="19">
         <f t="shared" si="1"/>
         <v>1.6000000000000014E-2</v>
@@ -4743,7 +6037,7 @@
       <c r="E76" s="1">
         <v>1.7969999999999999</v>
       </c>
-      <c r="F76" s="47"/>
+      <c r="F76" s="44"/>
       <c r="G76" s="19">
         <f t="shared" si="1"/>
         <v>1.2000000000000011E-2</v>
@@ -4778,7 +6072,7 @@
       <c r="E77" s="1">
         <v>1.7969999999999999</v>
       </c>
-      <c r="F77" s="47"/>
+      <c r="F77" s="44"/>
       <c r="G77" s="19">
         <f t="shared" si="1"/>
         <v>1.2000000000000011E-2</v>
@@ -4813,7 +6107,7 @@
       <c r="E78" s="1">
         <v>1.7969999999999999</v>
       </c>
-      <c r="F78" s="47"/>
+      <c r="F78" s="44"/>
       <c r="G78" s="19">
         <f t="shared" si="1"/>
         <v>1.6000000000000014E-2</v>
@@ -4848,7 +6142,7 @@
       <c r="E79" s="1">
         <v>1.7969999999999999</v>
       </c>
-      <c r="F79" s="47"/>
+      <c r="F79" s="44"/>
       <c r="G79" s="19">
         <f t="shared" si="1"/>
         <v>1.6000000000000014E-2</v>
@@ -4901,7 +6195,7 @@
       <c r="E80" s="1">
         <v>1.7969999999999999</v>
       </c>
-      <c r="F80" s="47"/>
+      <c r="F80" s="44"/>
       <c r="G80" s="19">
         <f t="shared" si="1"/>
         <v>1.2000000000000011E-2</v>
@@ -4954,7 +6248,7 @@
       <c r="E81" s="8">
         <v>1.7969999999999999</v>
       </c>
-      <c r="F81" s="48"/>
+      <c r="F81" s="45"/>
       <c r="G81" s="19">
         <f t="shared" si="1"/>
         <v>1.6000000000000014E-2</v>
@@ -5007,7 +6301,7 @@
       <c r="E82" s="20">
         <v>2.5</v>
       </c>
-      <c r="F82" s="46"/>
+      <c r="F82" s="43"/>
       <c r="G82" s="19">
         <f t="shared" si="1"/>
         <v>2.0000000000000018E-2</v>
@@ -5060,7 +6354,7 @@
       <c r="E83" s="10">
         <v>2.5</v>
       </c>
-      <c r="F83" s="47"/>
+      <c r="F83" s="44"/>
       <c r="G83" s="19">
         <f t="shared" si="1"/>
         <v>2.4000000000000021E-2</v>
@@ -5113,7 +6407,7 @@
       <c r="E84" s="10">
         <v>2.5</v>
       </c>
-      <c r="F84" s="47"/>
+      <c r="F84" s="44"/>
       <c r="G84" s="19">
         <f t="shared" si="1"/>
         <v>2.0000000000000018E-2</v>
@@ -5166,7 +6460,7 @@
       <c r="E85" s="10">
         <v>2.5</v>
       </c>
-      <c r="F85" s="47"/>
+      <c r="F85" s="44"/>
       <c r="G85" s="19">
         <f t="shared" si="1"/>
         <v>2.4000000000000021E-2</v>
@@ -5219,7 +6513,7 @@
       <c r="E86" s="10">
         <v>2.5</v>
       </c>
-      <c r="F86" s="47"/>
+      <c r="F86" s="44"/>
       <c r="G86" s="19">
         <f t="shared" si="1"/>
         <v>9.9999999999997868E-3</v>
@@ -5272,7 +6566,7 @@
       <c r="E87" s="10">
         <v>2.5</v>
       </c>
-      <c r="F87" s="47"/>
+      <c r="F87" s="44"/>
       <c r="G87" s="19">
         <f t="shared" si="1"/>
         <v>2.0000000000000018E-2</v>
@@ -5325,7 +6619,7 @@
       <c r="E88" s="10">
         <v>2.5</v>
       </c>
-      <c r="F88" s="47"/>
+      <c r="F88" s="44"/>
       <c r="G88" s="19">
         <f t="shared" si="1"/>
         <v>5.3999999999999826E-2</v>
@@ -5378,7 +6672,7 @@
       <c r="E89" s="10">
         <v>2.5</v>
       </c>
-      <c r="F89" s="47"/>
+      <c r="F89" s="44"/>
       <c r="G89" s="19">
         <f t="shared" si="1"/>
         <v>2.4000000000000021E-2</v>
@@ -5428,7 +6722,7 @@
       <c r="E90" s="10">
         <v>2.5</v>
       </c>
-      <c r="F90" s="47"/>
+      <c r="F90" s="44"/>
       <c r="G90" s="19">
         <f t="shared" si="1"/>
         <v>3.3999999999999808E-2</v>
@@ -5478,7 +6772,7 @@
       <c r="E91" s="11">
         <v>2.5</v>
       </c>
-      <c r="F91" s="48"/>
+      <c r="F91" s="45"/>
       <c r="G91" s="19">
         <f t="shared" si="1"/>
         <v>2.0000000000000018E-2</v>
@@ -7291,11 +8585,6 @@
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="F82:F91"/>
-    <mergeCell ref="B49:F49"/>
-    <mergeCell ref="G49:K49"/>
-    <mergeCell ref="F62:F71"/>
-    <mergeCell ref="F72:F81"/>
     <mergeCell ref="A5:A14"/>
     <mergeCell ref="A15:A24"/>
     <mergeCell ref="A25:A34"/>
@@ -7303,6 +8592,11 @@
     <mergeCell ref="F15:F24"/>
     <mergeCell ref="F25:F34"/>
     <mergeCell ref="F35:F44"/>
+    <mergeCell ref="F82:F91"/>
+    <mergeCell ref="B49:F49"/>
+    <mergeCell ref="G49:K49"/>
+    <mergeCell ref="F62:F71"/>
+    <mergeCell ref="F72:F81"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -7368,14 +8662,14 @@
       <c r="I4" s="1"/>
     </row>
     <row r="5" spans="1:12" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B5" s="50" t="s">
+      <c r="B5" s="53" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="50"/>
-      <c r="D5" s="50" t="s">
+      <c r="C5" s="53"/>
+      <c r="D5" s="53" t="s">
         <v>15</v>
       </c>
-      <c r="E5" s="50"/>
+      <c r="E5" s="53"/>
       <c r="G5" s="17" t="s">
         <v>18</v>
       </c>
@@ -12993,10 +14287,10 @@
         <v>10</v>
       </c>
       <c r="B1" s="6"/>
-      <c r="C1" s="50" t="s">
+      <c r="C1" s="53" t="s">
         <v>15</v>
       </c>
-      <c r="D1" s="50"/>
+      <c r="D1" s="53"/>
       <c r="K1" s="31" t="s">
         <v>39</v>
       </c>
@@ -13035,13 +14329,13 @@
       <c r="L2" s="31" t="s">
         <v>46</v>
       </c>
-      <c r="O2" s="51" t="s">
+      <c r="O2" s="54" t="s">
         <v>45</v>
       </c>
-      <c r="P2" s="51"/>
-      <c r="Q2" s="51"/>
-      <c r="R2" s="51"/>
-      <c r="S2" s="51"/>
+      <c r="P2" s="54"/>
+      <c r="Q2" s="54"/>
+      <c r="R2" s="54"/>
+      <c r="S2" s="54"/>
     </row>
     <row r="3" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A3" s="12">
@@ -13206,13 +14500,13 @@
         <f>V5*U5/SQRT(5)</f>
         <v>182.10093666651801</v>
       </c>
-      <c r="AB5" s="51" t="s">
+      <c r="AB5" s="54" t="s">
         <v>51</v>
       </c>
-      <c r="AC5" s="51"/>
-      <c r="AD5" s="51"/>
-      <c r="AE5" s="51"/>
-      <c r="AF5" s="51"/>
+      <c r="AC5" s="54"/>
+      <c r="AD5" s="54"/>
+      <c r="AE5" s="54"/>
+      <c r="AF5" s="54"/>
     </row>
     <row r="6" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A6">
@@ -13545,13 +14839,13 @@
         <f>W5/(T5)^2*10^6</f>
         <v>0.40679853031830099</v>
       </c>
-      <c r="AB10" s="51" t="s">
+      <c r="AB10" s="54" t="s">
         <v>52</v>
       </c>
-      <c r="AC10" s="51"/>
-      <c r="AD10" s="51"/>
-      <c r="AE10" s="51"/>
-      <c r="AF10" s="51"/>
+      <c r="AC10" s="54"/>
+      <c r="AD10" s="54"/>
+      <c r="AE10" s="54"/>
+      <c r="AF10" s="54"/>
     </row>
     <row r="11" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A11">
@@ -13726,13 +15020,13 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="O13" s="51" t="s">
+      <c r="O13" s="54" t="s">
         <v>52</v>
       </c>
-      <c r="P13" s="51"/>
-      <c r="Q13" s="51"/>
-      <c r="R13" s="51"/>
-      <c r="S13" s="51"/>
+      <c r="P13" s="54"/>
+      <c r="Q13" s="54"/>
+      <c r="R13" s="54"/>
+      <c r="S13" s="54"/>
       <c r="AA13">
         <v>5</v>
       </c>

--- a/Lab 3 - Vibrations/data_and_analysis.xlsx
+++ b/Lab 3 - Vibrations/data_and_analysis.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alex\Documents\LaTeX\MEC-E-403\Lab 3 - Vibrations\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{334273EA-A684-427D-9012-3C355BE5E14A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6CC6CB0-56D9-4B7E-B36A-9026680A2E80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="511" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="512" uniqueCount="107">
   <si>
     <t>frequency</t>
   </si>
@@ -374,6 +374,9 @@
   </si>
   <si>
     <t>err</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
@@ -704,7 +707,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03AD7245-EB65-F543-9047-E96AF37BD7B2}">
   <dimension ref="A1:U326"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A26" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
@@ -727,7 +730,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="39" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>14</v>
       </c>
@@ -1377,9 +1380,8 @@
         <f t="shared" ref="C28:E28" si="8">_xlfn.STDEV.S(C15:C19)</f>
         <v>8.6197447758040072E-2</v>
       </c>
-      <c r="D28" s="1">
-        <f t="shared" si="8"/>
-        <v>0.12727922061357846</v>
+      <c r="D28" s="1" t="s">
+        <v>106</v>
       </c>
       <c r="E28" s="1">
         <f t="shared" si="8"/>
@@ -1419,9 +1421,9 @@
         <f t="shared" ref="C30:E30" si="10">C29*C28/SQRT(5)</f>
         <v>0.10702826761820812</v>
       </c>
-      <c r="D30" s="1">
+      <c r="D30" s="1" t="e">
         <f t="shared" si="10"/>
-        <v>0.1580380259553148</v>
+        <v>#VALUE!</v>
       </c>
       <c r="E30" s="1">
         <f t="shared" si="10"/>
@@ -1440,9 +1442,9 @@
         <f t="shared" ref="C31:E31" si="11">C30/10</f>
         <v>1.0702826761820812E-2</v>
       </c>
-      <c r="D31" s="1">
+      <c r="D31" s="1" t="e">
         <f t="shared" si="11"/>
-        <v>1.5803802595531481E-2</v>
+        <v>#VALUE!</v>
       </c>
       <c r="E31" s="1">
         <f t="shared" si="11"/>
@@ -1461,16 +1463,16 @@
         <f>C23*C31/C21</f>
         <v>8.8549687047291912E-3</v>
       </c>
-      <c r="D32" s="16">
+      <c r="D32" s="16" t="e">
         <f>D23*D31/D21</f>
-        <v>1.1624238056785806E-2</v>
+        <v>#VALUE!</v>
       </c>
       <c r="E32" s="16">
         <f>E23*E31/E21</f>
         <v>1.5882475791328562E-2</v>
       </c>
     </row>
-    <row r="34" spans="1:21" s="3" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
         <v>25</v>
       </c>

--- a/Lab 3 - Vibrations/data_and_analysis.xlsx
+++ b/Lab 3 - Vibrations/data_and_analysis.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alex\Documents\LaTeX\MEC-E-403\Lab 3 - Vibrations\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA2DA8DF-DB98-4C77-ADD6-0C7602A40857}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{236EB428-C018-46DE-A16A-9E4AA12DBA1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -713,8 +713,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03AD7245-EB65-F543-9047-E96AF37BD7B2}">
   <dimension ref="A1:U328"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B12" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="G29" sqref="G29"/>
+    <sheetView tabSelected="1" topLeftCell="A47" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="H55" sqref="H55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1242,7 +1242,7 @@
         <v>4.72065011809135</v>
       </c>
     </row>
-    <row r="23" spans="1:12" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
         <v>38</v>
       </c>
@@ -1255,7 +1255,7 @@
         <v>0.90958704748044394</v>
       </c>
       <c r="D23" s="1">
-        <f t="shared" ref="D23:E23" si="5">D22/(2*PI())</f>
+        <f t="shared" ref="D23" si="5">D22/(2*PI())</f>
         <v>0.85763293310463129</v>
       </c>
       <c r="E23" s="1">
@@ -1270,7 +1270,7 @@
       <c r="K23" s="17"/>
       <c r="L23" s="17"/>
     </row>
-    <row r="24" spans="1:12" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12" ht="49.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
         <v>40</v>
       </c>
@@ -1300,7 +1300,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="25" spans="1:12" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:12" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
         <v>41</v>
       </c>
@@ -1662,6 +1662,10 @@
         <f>AVERAGE(E42:E47)</f>
         <v>2.7105252741536204E-2</v>
       </c>
+      <c r="G42" s="16">
+        <f>AVERAGE(F42:F51)</f>
+        <v>2.4974908629041434E-2</v>
+      </c>
       <c r="I42" s="1" t="s">
         <v>9</v>
       </c>
@@ -1704,6 +1708,7 @@
         <v>2.1377341159454687E-2</v>
       </c>
       <c r="F43" s="16"/>
+      <c r="G43" s="16"/>
       <c r="I43" s="1" t="s">
         <v>9</v>
       </c>
@@ -1746,6 +1751,7 @@
         <v>2.3346519595391368E-2</v>
       </c>
       <c r="F44" s="16"/>
+      <c r="G44" s="16"/>
       <c r="I44" s="1" t="s">
         <v>9</v>
       </c>
@@ -1788,6 +1794,7 @@
         <v>2.8598694449383358E-2</v>
       </c>
       <c r="F45" s="16"/>
+      <c r="G45" s="16"/>
       <c r="I45" s="1" t="s">
         <v>9</v>
       </c>
@@ -1830,6 +1837,7 @@
         <v>3.2133089364614217E-2</v>
       </c>
       <c r="F46" s="16"/>
+      <c r="G46" s="16"/>
       <c r="I46" s="1" t="s">
         <v>9</v>
       </c>
@@ -1872,6 +1880,7 @@
         <v>3.817858111034983E-2</v>
       </c>
       <c r="F47" s="16"/>
+      <c r="G47" s="16"/>
       <c r="I47" s="1" t="s">
         <v>9</v>
       </c>
@@ -1914,6 +1923,7 @@
         <v>5.2260531027662205E-2</v>
       </c>
       <c r="F48" s="16"/>
+      <c r="G48" s="16"/>
       <c r="I48" s="1" t="s">
         <v>9</v>
       </c>
@@ -1956,6 +1966,7 @@
         <v>7.4793917025098244E-2</v>
       </c>
       <c r="F49" s="16"/>
+      <c r="G49" s="16"/>
       <c r="I49" s="1" t="s">
         <v>9</v>
       </c>
@@ -1992,6 +2003,7 @@
       <c r="D50"/>
       <c r="E50"/>
       <c r="F50" s="16"/>
+      <c r="G50" s="16"/>
       <c r="I50" s="1" t="s">
         <v>9</v>
       </c>
@@ -2037,6 +2049,7 @@
         <f>AVERAGE(E51:E56)</f>
         <v>2.2844564516546668E-2</v>
       </c>
+      <c r="G51" s="16"/>
       <c r="I51" s="1" t="s">
         <v>9</v>
       </c>
@@ -2079,6 +2092,7 @@
         <v>1.8612034742713862E-2</v>
       </c>
       <c r="F52" s="16"/>
+      <c r="G52" s="16"/>
       <c r="I52" s="1" t="s">
         <v>9</v>
       </c>
@@ -2115,6 +2129,7 @@
         <v>2.1044004657336409E-2</v>
       </c>
       <c r="F53" s="16"/>
+      <c r="G53" s="16"/>
       <c r="I53" s="1" t="s">
         <v>10</v>
       </c>
@@ -2157,6 +2172,7 @@
         <v>2.3076735402352031E-2</v>
       </c>
       <c r="F54" s="16"/>
+      <c r="G54" s="16"/>
       <c r="I54" s="1" t="s">
         <v>10</v>
       </c>
@@ -2199,6 +2215,7 @@
         <v>2.7555742922917823E-2</v>
       </c>
       <c r="F55" s="16"/>
+      <c r="G55" s="16"/>
       <c r="I55" s="1" t="s">
         <v>10</v>
       </c>
@@ -2241,6 +2258,7 @@
         <v>3.0613049333271816E-2</v>
       </c>
       <c r="F56" s="16"/>
+      <c r="G56" s="16"/>
       <c r="I56" s="1" t="s">
         <v>10</v>
       </c>
@@ -2283,6 +2301,7 @@
         <v>3.7907825342230861E-2</v>
       </c>
       <c r="F57" s="16"/>
+      <c r="G57" s="16"/>
       <c r="I57" s="1" t="s">
         <v>10</v>
       </c>
@@ -2325,6 +2344,7 @@
         <v>5.0498829513601406E-2</v>
       </c>
       <c r="F58" s="16"/>
+      <c r="G58" s="16"/>
       <c r="I58" s="1" t="s">
         <v>10</v>
       </c>
@@ -2367,6 +2387,7 @@
         <v>7.0630486782001831E-2</v>
       </c>
       <c r="F59" s="16"/>
+      <c r="G59" s="16"/>
       <c r="I59" s="1" t="s">
         <v>10</v>
       </c>
@@ -2409,6 +2430,7 @@
         <v>0.12552024728975536</v>
       </c>
       <c r="F60" s="16"/>
+      <c r="G60" s="16"/>
       <c r="I60" s="1" t="s">
         <v>10</v>
       </c>
@@ -2445,6 +2467,7 @@
       <c r="D61"/>
       <c r="E61"/>
       <c r="F61" s="16"/>
+      <c r="G61" s="16"/>
       <c r="I61" s="1" t="s">
         <v>10</v>
       </c>
@@ -2489,6 +2512,10 @@
       <c r="F62" s="16">
         <f>AVERAGE(E62:E67)</f>
         <v>2.0636035002227909E-2</v>
+      </c>
+      <c r="G62" s="16">
+        <f>AVERAGE(F62:F73)</f>
+        <v>1.8446214749055723E-2</v>
       </c>
       <c r="I62" s="1" t="s">
         <v>10</v>
